--- a/Documentation/Resources.xlsx
+++ b/Documentation/Resources.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Second_Semester\Git\battleship\non-code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uni\Project\taskIDK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="88">
   <si>
     <t>arial.tff</t>
   </si>
@@ -77,9 +77,6 @@
     <t>deloy_randomize_button.png</t>
   </si>
   <si>
-    <t>explosions.png</t>
-  </si>
-  <si>
     <t>splash.png</t>
   </si>
   <si>
@@ -210,6 +207,87 @@
   </si>
   <si>
     <t>✗</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>splash.txt</t>
+  </si>
+  <si>
+    <t>startup.txt</t>
+  </si>
+  <si>
+    <t>Bundles</t>
+  </si>
+  <si>
+    <t>FileDialog.txt</t>
+  </si>
+  <si>
+    <t>fdFile.png</t>
+  </si>
+  <si>
+    <t>fdFolder.png</t>
+  </si>
+  <si>
+    <t>FileDialog_Active.png</t>
+  </si>
+  <si>
+    <t>FileDialog_Background.png</t>
+  </si>
+  <si>
+    <t>FileDialog_Inactive.png</t>
+  </si>
+  <si>
+    <t>FileDialog_Scroll.png</t>
+  </si>
+  <si>
+    <t>FileDialog_Scrollsmall.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_horiz_1.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_horiz_2.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_horiz_3.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_horiz_4.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_horiz_5.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_vert_1.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_vert_2.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_vert_3.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_vert_4.png</t>
+  </si>
+  <si>
+    <t>Ship_deploy_vert_5.png</t>
+  </si>
+  <si>
+    <t>SplashBack.png</t>
+  </si>
+  <si>
+    <t>Swinburne.jpg</t>
+  </si>
+  <si>
+    <t>SwinGameani.jpg</t>
+  </si>
+  <si>
+    <t>Panels</t>
+  </si>
+  <si>
+    <t>swingamestart.wav</t>
   </si>
 </sst>
 </file>
@@ -261,13 +339,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,6 +440,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -396,6 +492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,30 +661,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -579,68 +693,68 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -648,254 +762,560 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" t="s">
         <v>39</v>
       </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
         <v>20</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C45" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
         <v>21</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C46" t="s">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
         <v>22</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C47" t="s">
         <v>42</v>
       </c>
-      <c r="D24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="D47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
         <v>23</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C48" t="s">
         <v>43</v>
       </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="D48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C49" t="s">
         <v>44</v>
       </c>
-      <c r="D26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>25</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C50" t="s">
         <v>45</v>
       </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="D50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
         <v>26</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" t="s">
         <v>46</v>
       </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>60</v>
       </c>
     </row>
